--- a/xlsx/墨西哥卷饼_intext.xlsx
+++ b/xlsx/墨西哥卷饼_intext.xlsx
@@ -29,7 +29,7 @@
     <t>墨西哥夹饼</t>
   </si>
   <si>
-    <t>政策_政策_美國_墨西哥卷饼</t>
+    <t>政策_政策_美国_墨西哥卷饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%AA%E8%8C%84%E9%86%AC</t>
   </si>
   <si>
-    <t>番茄醬</t>
+    <t>番茄酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%92%E8%9B%8B</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A3%E9%86%AC</t>
   </si>
   <si>
-    <t>辣醬</t>
+    <t>辣酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%BE%B7%E5%9F%BA</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
